--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1037743.485137409</v>
+        <v>1080461.593780753</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>278692.072591685</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6635987.724770133</v>
+        <v>7242425.196637934</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54.81047169401717</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>286.6663786011224</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>13.99728392830417</v>
+        <v>104.0609838597409</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>360.9032414983747</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>148.1221594290542</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>73.06691549848507</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1105,7 +1107,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1117,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>213.8263703194808</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1136,19 +1138,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>86.89582264049403</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>94.50295622698357</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1342,10 +1344,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>20.56754178381383</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>368.1715601743556</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>45.76594660771396</v>
       </c>
       <c r="C13" t="n">
-        <v>31.24391673887689</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244353</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665254</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>48.87914869075978</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1771,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>28.46824604904437</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>46.22530271040425</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1847,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1895,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2005,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2014,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>28.85560178398855</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2248,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2302,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>222.8452350570676</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>139.9514671241869</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>279.8080589982816</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3430,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>83.42661545872123</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170439</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3509,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3661,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>144.1266108076384</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3740,13 +3742,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>403.8980833063929</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3755,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170566</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>82.14201637551416</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3986,16 +3988,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>200.8961776048058</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>140.4342819615948</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1382.412671899186</v>
+        <v>153.8932738874814</v>
       </c>
       <c r="C2" t="n">
-        <v>1348.310603123013</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D2" t="n">
-        <v>912.4008182974577</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>478.6260734557529</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>454.7990479053647</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>2265.205371842461</v>
+        <v>1407.621431493425</v>
       </c>
       <c r="X2" t="n">
-        <v>1846.062908421772</v>
+        <v>988.4789680727357</v>
       </c>
       <c r="Y2" t="n">
-        <v>1437.776784721425</v>
+        <v>580.1928443723891</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>714.2412710704069</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1375.081325612185</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1599.468199913098</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1599.468199913098</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1599.468199913098</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>122.603617826933</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>122.603617826933</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>122.603617826933</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>2634.504334502149</v>
+        <v>1432.829956469585</v>
       </c>
       <c r="U4" t="n">
-        <v>2356.071333755254</v>
+        <v>1154.39695572269</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>867.4414475931208</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>595.4150431794122</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>350.0232885128247</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>122.603617826933</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2078.225803160042</v>
+        <v>904.4591712531718</v>
       </c>
       <c r="C5" t="n">
-        <v>1640.083330343465</v>
+        <v>870.3571024769992</v>
       </c>
       <c r="D5" t="n">
-        <v>1204.173545517909</v>
+        <v>505.8083736907622</v>
       </c>
       <c r="E5" t="n">
-        <v>770.3988006762045</v>
+        <v>476.0740328894614</v>
       </c>
       <c r="F5" t="n">
-        <v>342.5313710854123</v>
+        <v>452.2470073390731</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="M5" t="n">
-        <v>632.7278666362198</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="O5" t="n">
-        <v>1954.407975719776</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2159.002379407678</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>1754.146924818712</v>
       </c>
       <c r="X5" t="n">
-        <v>2654.14371650258</v>
+        <v>1335.004461398022</v>
       </c>
       <c r="Y5" t="n">
-        <v>2504.525373644949</v>
+        <v>926.7183376976756</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>972.398585929168</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="M6" t="n">
-        <v>397.8892067392439</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="N6" t="n">
-        <v>397.8892067392439</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>962.7013733912472</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="C7" t="n">
-        <v>790.1396618744722</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>624.2616690759949</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>266.2978593068779</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>684.5077410748389</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1143.991608255752</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2062.527138730326</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1775.571630600756</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1503.545226187048</v>
       </c>
       <c r="X7" t="n">
-        <v>1190.121044077139</v>
+        <v>1258.15347152046</v>
       </c>
       <c r="Y7" t="n">
-        <v>962.7013733912472</v>
+        <v>1030.733800834568</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1385.472033935714</v>
+        <v>1735.906148501163</v>
       </c>
       <c r="C8" t="n">
-        <v>947.3295611191371</v>
+        <v>1297.763675684586</v>
       </c>
       <c r="D8" t="n">
-        <v>511.4197762935816</v>
+        <v>1265.894294899434</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187676</v>
+        <v>832.1195500577296</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4805,19 +4807,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4835,19 +4837,19 @@
         <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.186649932281</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.186649932281</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>2326.371599383719</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X8" t="n">
-        <v>1907.229135963029</v>
+        <v>2570.491842686417</v>
       </c>
       <c r="Y8" t="n">
-        <v>1811.771604420622</v>
+        <v>2162.20571898607</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>966.5813843420327</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>794.0196728252577</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
         <v>794.0196728252577</v>
@@ -4990,22 +4992,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2468.626341703672</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>2190.193340956777</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1903.237832827208</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1631.211428413499</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1385.819673746912</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1158.40000306102</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1982.322064829227</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1982.322064829227</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1546.412280003671</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1174.52181518109</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>746.6543855902976</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>345.2565542135614</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677765</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096956</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L11" t="n">
-        <v>1396.102936374607</v>
+        <v>1455.454534099993</v>
       </c>
       <c r="M11" t="n">
-        <v>1396.102936374607</v>
+        <v>2612.502369310544</v>
       </c>
       <c r="N11" t="n">
-        <v>1396.102936374607</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.667132127231</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085826</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2806.319982838882</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2401.464528249916</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>1982.322064829227</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1982.322064829227</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056519</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>82.19007281723525</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>406.7483977834476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>406.7483977834476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>406.7483977834476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>406.7483977834476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>406.7483977834476</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O12" t="n">
-        <v>406.7483977834476</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>765.6202370743899</v>
+        <v>1181.319000882657</v>
       </c>
       <c r="C13" t="n">
-        <v>734.0607252169385</v>
+        <v>1008.757289365882</v>
       </c>
       <c r="D13" t="n">
-        <v>568.1827324184612</v>
+        <v>842.8792965674049</v>
       </c>
       <c r="E13" t="n">
-        <v>398.4247286691985</v>
+        <v>673.1212928181421</v>
       </c>
       <c r="F13" t="n">
-        <v>221.7176746309547</v>
+        <v>496.4142387798983</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677765</v>
+        <v>330.822963805726</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677765</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2513.544640857574</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.665194436029</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>1989.232193689134</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.276685559565</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.250281145856</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.858526479269</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y13" t="n">
-        <v>957.4388557933771</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>895.6667038500906</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>457.5242310335138</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>457.5242310335138</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>457.5242310335138</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>457.5242310335138</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677765</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677765</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096956</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5387406219839</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5387406219839</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>701.5387406219839</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5387406219839</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.667132127231</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085826</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2547.097680155899</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2184.480730089726</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>1779.625275500759</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>1730.252398035345</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1321.966274334998</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056519</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723525</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K15" t="n">
-        <v>1061.454444409171</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.454444409171</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.454444409171</v>
+        <v>1327.049347523737</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.454444409171</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>765.6202370743899</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>593.0585255576149</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>427.1805327591376</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>398.4247286691938</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>221.71767463095</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677765</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677765</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2650.81040391895</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.276685559565</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.250281145856</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.858526479269</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>957.4388557933771</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5513,25 +5515,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1286.300469346936</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>1286.300469346936</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.348304557487</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5543,22 +5545,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,10 +5591,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
         <v>1107.588885023173</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>617.775144876991</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>617.775144876991</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>448.0171411277283</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>271.3100870894845</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5674,49 +5676,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066043</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745653</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955478</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.26126017695</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755405</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008511</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878941</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465233</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798645</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127533</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,22 +5755,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="Q20" t="n">
         <v>4943.887948785925</v>
@@ -5826,22 +5828,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>751.6989919312866</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N21" t="n">
-        <v>751.6989919312866</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5920,40 +5922,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1251.288524732521</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1023.868854046629</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5989,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6169,22 +6171,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X25" t="n">
         <v>1600.55729028754</v>
@@ -6227,13 +6229,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
         <v>4132.862346968675</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1890.555778681944</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1618.529374268236</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1373.137619601648</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="31">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6786,7 +6788,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
         <v>1765.500601749588</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>4294.449917128814</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7011,13 +7013,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856325</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,46 +7180,46 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>1632.322702740237</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>1632.322702740237</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7254,10 +7256,10 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
         <v>1107.588885023173</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883955</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7336,46 +7338,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407383</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1293.369522549955</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>885.391660624306</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>885.391660624306</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>885.391660624306</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>457.5242310335138</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677765</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677765</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>176.1286096224175</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>870.6928053750408</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>870.6928053750408</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>870.6928053750408</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>870.6928053750408</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>1565.257001127664</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>2259.821196880288</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838882</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>2547.097680155899</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>2547.097680155899</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2547.097680155899</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2127.95521673521</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>1719.669093034863</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056519</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677765</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>56.12639965677765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>330.2377696303397</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1024.801965382963</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1024.801965382963</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1719.366161135586</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1719.366161135586</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>906.6224367337088</v>
+        <v>3205.876241053795</v>
       </c>
       <c r="C43" t="n">
-        <v>734.0607252169337</v>
+        <v>3033.31452953702</v>
       </c>
       <c r="D43" t="n">
-        <v>568.1827324184565</v>
+        <v>2867.436536738543</v>
       </c>
       <c r="E43" t="n">
-        <v>398.4247286691938</v>
+        <v>2697.67853298928</v>
       </c>
       <c r="F43" t="n">
-        <v>221.71767463095</v>
+        <v>2520.971478951036</v>
       </c>
       <c r="G43" t="n">
-        <v>56.12639965677765</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677765</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677765</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>4953.800644836978</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>4707.921198415434</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>4429.488197668539</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.858864264937</v>
+        <v>4142.53268953897</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.832459851228</v>
+        <v>3870.506285125261</v>
       </c>
       <c r="X43" t="n">
-        <v>1325.860726138588</v>
+        <v>3625.114530458674</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.441055452696</v>
+        <v>3397.694859772782</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1363.953402140615</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>925.8109293240379</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>489.9011444984825</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>56.12639965677765</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>56.12639965677765</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677765</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677765</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>750.690595409401</v>
+        <v>605.8694973157614</v>
       </c>
       <c r="L44" t="n">
-        <v>1417.191591333636</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M44" t="n">
-        <v>1417.191591333636</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N44" t="n">
-        <v>2111.755787086259</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O44" t="n">
-        <v>2806.319982838882</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P44" t="n">
-        <v>2806.319982838882</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838882</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>2603.394550914836</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>2603.394550914836</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>2603.394550914836</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>2198.539096325869</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2198.539096325869</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>1790.252972625522</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351366</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188009</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334562</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661516</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277677</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.815873543861</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360074</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.143894520531</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>1467.67474604209</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>2148.408266112467</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>2148.408266112467</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>2148.408266112467</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.408266112467</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.408266112467</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112467</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744543</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838882</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287266</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617867</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617836</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679835</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413029</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651909</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.55586743113</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1135.184560268659</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>962.6228487518839</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>796.7448559534066</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>626.9868522041439</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2492.126819562946</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2213.693818816051</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.841008753834</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1799.814604340125</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.422849673538</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.003178987646</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,22 +8054,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>226.6534083847603</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,16 +8142,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8216,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>145.5272350047205</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>577.1153547606273</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="M6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377786</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8453,13 +8455,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,7 +8470,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>540.0049805212334</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>347.9676668794094</v>
-      </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,28 +8692,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932207</v>
+        <v>927.2111175518133</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>212.2804580932207</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9003,19 +9005,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>834.6527275730855</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9401,25 +9403,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>69.04441372935707</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -9483,16 +9485,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>328.1614411053482</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>79.58635534528503</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>664.5938549921407</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9884,7 +9886,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>973.8822356326336</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.093094960597241e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10598,16 +10600,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>826.8607034446131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10826,25 +10828,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,13 +10904,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>121.2143535006464</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>276.8801716904667</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097206</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="L44" t="n">
-        <v>673.2333292163986</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097206</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>301.5463146682407</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>61.26543721893216</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>144.1344859240833</v>
       </c>
       <c r="C13" t="n">
-        <v>139.5921776627304</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791323938</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.8153550780014</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>366.0718900957226</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>111.4236523045791</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>135.079760440442</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>20.09260206285401</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>102.9863699957347</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>4.277894049992256</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>84.63380825304888</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627262</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>26.70948359396891</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25628,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>29.86296478201797</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.592177662725</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>16.97037725088595</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>609936.1319358612</v>
+        <v>592476.0290551269</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>609936.1319358612</v>
+        <v>607272.0718822813</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>419696.1421506059</v>
+        <v>634101.1359987565</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>419696.1421506059</v>
+        <v>634101.1359987565</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>634101.1359987564</v>
+        <v>634101.1359987565</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634101.1359987564</v>
+        <v>634101.1359987563</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>419696.142150606</v>
+        <v>634101.1359987564</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>419696.1421506059</v>
+        <v>634101.1359987563</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>388706.8069205462</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="E2" t="n">
-        <v>252817.8237739504</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="F2" t="n">
-        <v>252817.8237739505</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="G2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="H2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="I2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="J2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="K2" t="n">
         <v>381971.7484995803</v>
       </c>
       <c r="L2" t="n">
+        <v>381971.7484995804</v>
+      </c>
+      <c r="M2" t="n">
         <v>381971.7484995803</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>381971.7484995805</v>
+      </c>
+      <c r="O2" t="n">
+        <v>381971.7484995805</v>
+      </c>
+      <c r="P2" t="n">
         <v>381971.7484995804</v>
-      </c>
-      <c r="N2" t="n">
-        <v>381971.7484995803</v>
-      </c>
-      <c r="O2" t="n">
-        <v>252817.8237739505</v>
-      </c>
-      <c r="P2" t="n">
-        <v>252817.8237739505</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045622</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340837</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173889.5352664431</v>
+        <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>173889.5352664431</v>
+        <v>179718.6327917067</v>
       </c>
       <c r="D4" t="n">
         <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>62797.73829708048</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="F4" t="n">
-        <v>62797.73829708048</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875283</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875286</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
@@ -26445,19 +26447,19 @@
         <v>94878.44464875288</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="O4" t="n">
-        <v>62797.73829708055</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="P4" t="n">
-        <v>62797.73829708055</v>
+        <v>94878.44464875291</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-83094.95149169945</v>
+        <v>-25002.40131360403</v>
       </c>
       <c r="C6" t="n">
-        <v>140604.7470923454</v>
+        <v>70444.19242582099</v>
       </c>
       <c r="D6" t="n">
-        <v>140604.7470923453</v>
+        <v>129077.1515423624</v>
       </c>
       <c r="E6" t="n">
-        <v>137193.0251372627</v>
+        <v>27019.95602398523</v>
       </c>
       <c r="F6" t="n">
-        <v>147364.021737719</v>
+        <v>209375.065245035</v>
       </c>
       <c r="G6" t="n">
-        <v>51315.5882989259</v>
+        <v>209375.0652450351</v>
       </c>
       <c r="H6" t="n">
-        <v>209375.065245035</v>
+        <v>209375.0652450351</v>
       </c>
       <c r="I6" t="n">
         <v>209375.065245035</v>
       </c>
       <c r="J6" t="n">
-        <v>34723.71652732888</v>
+        <v>98360.59990004473</v>
       </c>
       <c r="K6" t="n">
-        <v>209375.0652450349</v>
+        <v>156329.2106062626</v>
       </c>
       <c r="L6" t="n">
-        <v>209375.0652450349</v>
+        <v>199982.7635184125</v>
       </c>
       <c r="M6" t="n">
-        <v>200885.9835416941</v>
+        <v>57174.89430704725</v>
       </c>
       <c r="N6" t="n">
-        <v>209375.0652450349</v>
+        <v>209375.065245035</v>
       </c>
       <c r="O6" t="n">
-        <v>147364.021737719</v>
+        <v>209375.0652450351</v>
       </c>
       <c r="P6" t="n">
-        <v>147364.0217377189</v>
+        <v>209375.065245035</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186368</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750247</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186368</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186368</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750247</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.2261030860415</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,7 +27441,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>114.1405214419546</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>229.4233680290251</v>
+        <v>139.3596680975884</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>70.64744547892525</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>256.0811030342888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>116.8335170333122</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>29.11146680044089</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>336.6929326543903</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,7 +27909,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27916,10 +27918,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>309.7003062363596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>222.8531101735155</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28260,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.805179386947804e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-9.962375751934692e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,16 +28377,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28746,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.325454526527633e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,22 +34774,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>226.6534083847603</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34936,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>145.5272350047205</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,19 +35011,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>577.1153547606273</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="M6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377786</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35109,7 +35111,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,13 +35175,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,7 +35190,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>540.0049805212334</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>347.9676668794094</v>
-      </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932207</v>
+        <v>927.2111175518133</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>212.2804580932207</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821575</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>834.6527275730855</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36042,25 +36044,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960958</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165097</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36123,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>69.04441372935707</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>328.1614411053482</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>79.58635534528503</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36288,7 +36290,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956047</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512943</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>664.5938549921407</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,7 +36606,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>973.8822356326336</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36616,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37090,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-1.0912429034652e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,13 +37317,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>826.8607034446131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37546,22 +37548,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37704,10 +37706,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080455</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>121.2143535006464</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>276.8801716904667</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080414</v>
@@ -37950,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097206</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="L44" t="n">
-        <v>673.2333292163986</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097206</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>301.5463146682407</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1080461.593780753</v>
+        <v>1079936.411411721</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.072591685</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>38.92859933434407</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>286.6663786011224</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.6072317764128</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>104.0609838597409</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>409.3275476299478</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>360.9032414983747</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -910,7 +910,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -961,7 +961,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.06691549848507</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>142.8403896021429</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1107,7 +1107,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>86.89582264049403</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>88.32153365579732</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1299,10 +1299,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>43.7014338986946</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>131.996999652747</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1372,10 +1372,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1384,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112161</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800264</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.76594660771396</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665254</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1612,7 +1612,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1624,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,13 +1666,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430783</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>126.4702673604302</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>46.22530271040425</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800601</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>28.85560178398855</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>69.4540573175256</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2250,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>222.8452350570676</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2496,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2535,13 +2535,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>275.2967631885858</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>139.9514671241869</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3426,22 +3426,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>53.06991172717003</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>83.42661545872123</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3511,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3559,7 +3559,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3663,16 +3663,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>144.1266108076384</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>214.285726422171</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>154.7429394224636</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170566</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>1654.761434047123</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>1620.659365270951</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>1581.337547761512</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>1152.75587349878</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4333,19 +4333,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4369,13 +4369,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1407.621431493425</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>988.4789680727357</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>580.1928443723891</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.603617826933</v>
+        <v>206.2742057495001</v>
       </c>
       <c r="C4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1432.829956469585</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1154.39695572269</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V4" t="n">
-        <v>867.4414475931208</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="W4" t="n">
-        <v>595.4150431794122</v>
+        <v>870.9042498209665</v>
       </c>
       <c r="X4" t="n">
-        <v>350.0232885128247</v>
+        <v>625.5124951543789</v>
       </c>
       <c r="Y4" t="n">
-        <v>122.603617826933</v>
+        <v>398.0928244684872</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>904.4591712531718</v>
+        <v>574.4223959157541</v>
       </c>
       <c r="C5" t="n">
-        <v>870.3571024769992</v>
+        <v>540.3203271395815</v>
       </c>
       <c r="D5" t="n">
-        <v>505.8083736907622</v>
+        <v>104.410542314026</v>
       </c>
       <c r="E5" t="n">
-        <v>476.0740328894614</v>
+        <v>74.67620151272524</v>
       </c>
       <c r="F5" t="n">
-        <v>452.2470073390731</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="G5" t="n">
         <v>50.84917596233704</v>
@@ -4573,7 +4573,7 @@
         <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>1109.787858087173</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="M5" t="n">
         <v>1181.865694717422</v>
@@ -4594,25 +4594,25 @@
         <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473852</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473852</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473852</v>
+        <v>2178.745152974706</v>
       </c>
       <c r="V5" t="n">
-        <v>2159.002379407678</v>
+        <v>1816.128202908532</v>
       </c>
       <c r="W5" t="n">
-        <v>1754.146924818712</v>
+        <v>1411.272748319566</v>
       </c>
       <c r="X5" t="n">
-        <v>1335.004461398022</v>
+        <v>1396.17068893928</v>
       </c>
       <c r="Y5" t="n">
-        <v>926.7183376976756</v>
+        <v>987.8845652389338</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>972.398585929168</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>956.9288356845833</v>
+        <v>593.0357356940362</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845833</v>
+        <v>448.7525138736899</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>448.7525138736899</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985995</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="G7" t="n">
         <v>278.9945101244272</v>
@@ -4728,22 +4728,22 @@
         <v>50.43238658947704</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068779</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748389</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255752</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413396</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639178</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.42655460952</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
         <v>2521.619329473852</v>
@@ -4755,22 +4755,22 @@
         <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>2340.96013947722</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>2062.527138730326</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1775.571630600756</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>1503.545226187048</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>1258.15347152046</v>
+        <v>1012.274025098915</v>
       </c>
       <c r="Y7" t="n">
-        <v>1030.733800834568</v>
+        <v>784.8543544130234</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1735.906148501163</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C8" t="n">
-        <v>1297.763675684586</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>1265.894294899434</v>
+        <v>912.8176076703178</v>
       </c>
       <c r="E8" t="n">
-        <v>832.1195500577296</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4807,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2586.408952615265</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>2585.593902066702</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>2570.491842686417</v>
+        <v>1813.374751416896</v>
       </c>
       <c r="Y8" t="n">
-        <v>2162.20571898607</v>
+        <v>1809.129031756954</v>
       </c>
     </row>
     <row r="9">
@@ -4898,10 +4898,10 @@
         <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>237.446253362188</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>97.54407905256249</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4992,22 +4992,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5044,49 +5044,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1455.454534099993</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2612.502369310544</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>3738.23335274699</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1181.319000882657</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.757289365882</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674049</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181421</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387798983</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G13" t="n">
-        <v>330.822963805726</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X13" t="n">
-        <v>1454.96690046523</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y13" t="n">
-        <v>1227.547229779338</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="14">
@@ -5287,10 +5287,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O14" t="n">
         <v>3569.079287993934</v>
@@ -5317,7 +5317,7 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
@@ -5357,25 +5357,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1327.049347523737</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>665.1335920921263</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>495.3755883428635</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>318.6685343046197</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>318.6685343046197</v>
       </c>
       <c r="H16" t="n">
         <v>190.9207894961043</v>
@@ -5457,31 +5457,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2650.81040391895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2404.930957497405</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2837.977298779172</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5545,22 +5545,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>617.775144876991</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>617.775144876991</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>448.0171411277283</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>271.3100870894845</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
         <v>242.1630145804051</v>
@@ -5691,34 +5691,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.72767530925</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878954</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.26126017695</v>
+        <v>2648.764836721533</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755405</v>
+        <v>2402.885390299988</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008511</v>
+        <v>2124.452389553093</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878941</v>
+        <v>1837.496881423524</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.966900465233</v>
+        <v>1565.470477009816</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798645</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127533</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5755,22 +5755,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2769.623329187108</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N20" t="n">
-        <v>3895.354312623555</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O20" t="n">
-        <v>4875.533979193861</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P20" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
         <v>4943.887948785925</v>
@@ -5834,25 +5834,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>832.0502353276421</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5922,40 +5922,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.67908147158</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.36663430314</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.41112617357</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.288524732521</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1023.868854046629</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5989,16 +5989,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>426.819165236992</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.552685307369</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.552685307369</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.552685307369</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.552685307369</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.552685307369</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6153,46 +6153,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745614</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955474</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113119</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471571</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050027</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303132</v>
       </c>
       <c r="V25" t="n">
-        <v>2013.948813008508</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="W25" t="n">
-        <v>1741.922408594799</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>2093.658967439508</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>3219.389950875955</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>4199.569617446262</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>5027.879492279658</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5027.879492279658</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6940,16 +6940,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
         <v>5113.04201353898</v>
@@ -7013,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>367.6278435343481</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>190.9207894961043</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7134,13 +7134,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
@@ -7183,16 +7183,16 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
         <v>5113.042013538981</v>
@@ -7207,19 +7207,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883955</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C40" t="n">
-        <v>666.1722425291648</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D40" t="n">
-        <v>666.1722425291648</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E40" t="n">
-        <v>496.4142387799021</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
         <v>496.4142387799021</v>
@@ -7338,46 +7338,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.80886177457</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173583</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.67908147158</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050035</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.36663430314</v>
+        <v>2235.172953748142</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.41112617357</v>
+        <v>1948.217445618573</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759862</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093275</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407383</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3205.876241053795</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>3033.31452953702</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>2867.436536738543</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>2697.67853298928</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>2520.971478951036</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>2496.382403636182</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>4953.800644836978</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>4707.921198415434</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>4429.488197668539</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>4142.53268953897</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>3870.506285125261</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>3625.114530458674</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y43" t="n">
-        <v>3397.694859772782</v>
+        <v>1248.965051073966</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>605.8694973157614</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1680.929463568621</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2837.977298779172</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7724,10 +7724,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K45" t="n">
         <v>1107.588885023173</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8060,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8221,10 +8221,10 @@
         <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
-        <v>72.80589558611018</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>577.1153547606273</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>630.404832368463</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377786</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8692,19 +8692,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>927.2111175518133</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9005,7 +9005,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>834.6527275730855</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9181,10 +9181,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9403,7 +9403,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -9412,16 +9412,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9482,16 +9482,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>79.58635534528503</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>664.5938549921407</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9892,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>86.02274874679006</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10600,7 +10600,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10831,19 +10831,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>144.1344859240833</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.032885206099</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>111.4236523045791</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>135.079760440442</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>88.19489769745771</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>20.09260206285401</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>8.789189859688065</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>102.9863699957347</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>84.63380825304888</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>26.70948359396891</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117663</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>61.36294431725469</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>35.15749310933364</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>634101.1359987565</v>
+        <v>634101.1359987563</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634101.1359987565</v>
+        <v>634101.1359987564</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>634101.1359987565</v>
+        <v>634101.1359987564</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634101.1359987564</v>
+        <v>634101.1359987563</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634101.1359987563</v>
+        <v>634101.1359987564</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>634101.1359987564</v>
+        <v>634101.1359987565</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>634101.1359987563</v>
+        <v>634101.1359987564</v>
       </c>
     </row>
   </sheetData>
@@ -26328,13 +26328,13 @@
         <v>381971.7484995804</v>
       </c>
       <c r="G2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="H2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="I2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="J2" t="n">
         <v>381971.7484995803</v>
@@ -26349,7 +26349,7 @@
         <v>381971.7484995803</v>
       </c>
       <c r="N2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
         <v>381971.7484995805</v>
@@ -26423,28 +26423,28 @@
         <v>179718.6327917067</v>
       </c>
       <c r="D4" t="n">
-        <v>173889.5352664431</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
+        <v>94878.44464875283</v>
+      </c>
+      <c r="F4" t="n">
+        <v>94878.44464875283</v>
+      </c>
+      <c r="G4" t="n">
+        <v>94878.44464875283</v>
+      </c>
+      <c r="H4" t="n">
+        <v>94878.44464875283</v>
+      </c>
+      <c r="I4" t="n">
+        <v>94878.44464875283</v>
+      </c>
+      <c r="J4" t="n">
+        <v>94878.44464875288</v>
+      </c>
+      <c r="K4" t="n">
         <v>94878.44464875289</v>
-      </c>
-      <c r="F4" t="n">
-        <v>94878.44464875289</v>
-      </c>
-      <c r="G4" t="n">
-        <v>94878.44464875289</v>
-      </c>
-      <c r="H4" t="n">
-        <v>94878.44464875288</v>
-      </c>
-      <c r="I4" t="n">
-        <v>94878.44464875291</v>
-      </c>
-      <c r="J4" t="n">
-        <v>94878.44464875289</v>
-      </c>
-      <c r="K4" t="n">
-        <v>94878.44464875288</v>
       </c>
       <c r="L4" t="n">
         <v>94878.44464875289</v>
@@ -26453,13 +26453,13 @@
         <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
         <v>94878.44464875291</v>
       </c>
       <c r="P4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25002.40131360403</v>
+        <v>-25002.40131360405</v>
       </c>
       <c r="C6" t="n">
-        <v>70444.19242582099</v>
+        <v>70444.19242582102</v>
       </c>
       <c r="D6" t="n">
-        <v>129077.1515423624</v>
+        <v>129077.1515423625</v>
       </c>
       <c r="E6" t="n">
-        <v>27019.95602398523</v>
+        <v>26996.73168460268</v>
       </c>
       <c r="F6" t="n">
-        <v>209375.065245035</v>
+        <v>209351.8409056525</v>
       </c>
       <c r="G6" t="n">
-        <v>209375.0652450351</v>
+        <v>209351.8409056525</v>
       </c>
       <c r="H6" t="n">
-        <v>209375.0652450351</v>
+        <v>209351.8409056525</v>
       </c>
       <c r="I6" t="n">
-        <v>209375.065245035</v>
+        <v>209351.8409056524</v>
       </c>
       <c r="J6" t="n">
-        <v>98360.59990004473</v>
+        <v>98337.3755606621</v>
       </c>
       <c r="K6" t="n">
-        <v>156329.2106062626</v>
+        <v>156305.9862668799</v>
       </c>
       <c r="L6" t="n">
-        <v>199982.7635184125</v>
+        <v>199959.53917903</v>
       </c>
       <c r="M6" t="n">
-        <v>57174.89430704725</v>
+        <v>57151.66996766457</v>
       </c>
       <c r="N6" t="n">
-        <v>209375.065245035</v>
+        <v>209351.8409056524</v>
       </c>
       <c r="O6" t="n">
-        <v>209375.0652450351</v>
+        <v>209351.8409056524</v>
       </c>
       <c r="P6" t="n">
-        <v>209375.065245035</v>
+        <v>209351.8409056524</v>
       </c>
     </row>
   </sheetData>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>392.6220876429558</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>114.1405214419546</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0.2288626251944947</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27557,7 +27557,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>139.3596680975884</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>12.7090271501109</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>70.64744547892525</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116.8335170333122</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>27.99570479946445</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>336.6929326543903</v>
-      </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27912,16 +27912,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>326.6295051306851</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-3.996345306113487e-14</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-3.996345306113487e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-3.996345306113467e-14</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29225,7 +29225,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-3.477813321242845e-12</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30389,7 +30389,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34780,22 +34780,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,10 +34941,10 @@
         <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
-        <v>72.80589558611018</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>577.1153547606273</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>630.404832368463</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377786</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35412,19 +35412,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>927.2111175518133</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35725,7 +35725,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35825,7 +35825,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821575</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>834.6527275730855</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35901,10 +35901,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -36059,7 +36059,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165097</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36123,25 +36123,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831382</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36202,16 +36202,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>79.58635534528503</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36290,7 +36290,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956047</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512943</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>664.5938549921407</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080367</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,7 +36530,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36597,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36609,16 +36609,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>86.02274874679006</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37317,10 +37317,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37551,19 +37551,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37706,10 +37706,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080455</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
